--- a/doc/pdf/src/API DOC.xlsx
+++ b/doc/pdf/src/API DOC.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Структура запроса" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Действие</t>
   </si>
@@ -50,9 +51,6 @@
     <t>[{nick:"",pass:""}]</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -77,18 +75,12 @@
     <t>create_dialogue</t>
   </si>
   <si>
-    <t>[{name="",userNicks=[]}]</t>
-  </si>
-  <si>
     <t>[{id=x, name="",userNicks=[]}] | {Error:"", Reason:""}</t>
   </si>
   <si>
     <t>get_dialogues</t>
   </si>
   <si>
-    <t>[{nick=""}]</t>
-  </si>
-  <si>
     <t>Краткое описание действия API</t>
   </si>
   <si>
@@ -101,18 +93,9 @@
     <t>Возвращаемая сервером информация.</t>
   </si>
   <si>
-    <t>Вызов действия - список из имени функции и её аргументов</t>
-  </si>
-  <si>
-    <t>Данные - формат JSON</t>
-  </si>
-  <si>
     <t>quit_dialogue</t>
   </si>
   <si>
-    <t>[{nick="",id=""}]</t>
-  </si>
-  <si>
     <t>Отправить сообщенеие</t>
   </si>
   <si>
@@ -131,9 +114,6 @@
     <t>send_message</t>
   </si>
   <si>
-    <t>[{from:"",text:""}]</t>
-  </si>
-  <si>
     <t>[{id:x,from:"",timeSending:y,text:"",state:""}] | {Error:"", Reason:""}</t>
   </si>
   <si>
@@ -146,16 +126,61 @@
     <t>edit_message</t>
   </si>
   <si>
-    <t>[nick:"",id:x]</t>
-  </si>
-  <si>
-    <t>[nick:"", id:x]</t>
-  </si>
-  <si>
-    <t>[nick:"",id:x,text:""]</t>
-  </si>
-  <si>
     <t>delete_message</t>
+  </si>
+  <si>
+    <t>имя_функции</t>
+  </si>
+  <si>
+    <t>пустая строка (разделитель)</t>
+  </si>
+  <si>
+    <t>json-структура с аргументами</t>
+  </si>
+  <si>
+    <t>[{nick:"",pass:"",name="",userNicks=[]}]</t>
+  </si>
+  <si>
+    <t>[{nick:"",pass:"",id=""}]</t>
+  </si>
+  <si>
+    <t>[nick:"",pass:"", id:x]</t>
+  </si>
+  <si>
+    <t>[nick:"",pass:"",id:x]</t>
+  </si>
+  <si>
+    <t>Получить сообщение по id</t>
+  </si>
+  <si>
+    <t>создать артефакт</t>
+  </si>
+  <si>
+    <t>create_artifact</t>
+  </si>
+  <si>
+    <t>file_binary_data</t>
+  </si>
+  <si>
+    <t>{mime:"",fileName:""}</t>
+  </si>
+  <si>
+    <t>{id:x,mime:"",path=""}</t>
+  </si>
+  <si>
+    <t>получить артефакт</t>
+  </si>
+  <si>
+    <t>get_artfact</t>
+  </si>
+  <si>
+    <t>{id=x}</t>
+  </si>
+  <si>
+    <t>[{nick:"",pass:"",text:"",artifactID}]</t>
+  </si>
+  <si>
+    <t>{nick,pass,id,text,artifactID}</t>
   </si>
 </sst>
 </file>
@@ -487,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,25 +538,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -544,10 +567,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,10 +578,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,129 +589,200 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/pdf/src/API DOC.xlsx
+++ b/doc/pdf/src/API DOC.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Действие</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>{nick,pass,id,text,artifactID}</t>
+  </si>
+  <si>
+    <t>Доббавить учаастника</t>
+  </si>
+  <si>
+    <t>Удалить участника</t>
   </si>
 </sst>
 </file>
@@ -206,12 +212,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,10 +238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,16 +573,16 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -599,114 +615,96 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -715,36 +713,64 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>44</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>44</v>
       </c>
     </row>

--- a/doc/pdf/src/API DOC.xlsx
+++ b/doc/pdf/src/API DOC.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Действие</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Удалить участника</t>
+  </si>
+  <si>
+    <t>добавить id диалога</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +682,9 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -785,7 +791,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/pdf/src/API DOC.xlsx
+++ b/doc/pdf/src/API DOC.xlsx
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,16 +656,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/doc/pdf/src/API DOC.xlsx
+++ b/doc/pdf/src/API DOC.xlsx
@@ -123,9 +123,6 @@
     <t>read_message</t>
   </si>
   <si>
-    <t>edit_message</t>
-  </si>
-  <si>
     <t>delete_message</t>
   </si>
   <si>
@@ -177,12 +174,6 @@
     <t>{id=x}</t>
   </si>
   <si>
-    <t>[{nick:"",pass:"",text:"",artifactID}]</t>
-  </si>
-  <si>
-    <t>{nick,pass,id,text,artifactID}</t>
-  </si>
-  <si>
     <t>Доббавить учаастника</t>
   </si>
   <si>
@@ -190,6 +181,15 @@
   </si>
   <si>
     <t>добавить id диалога</t>
+  </si>
+  <si>
+    <t>[{nick:"",pass:"",text:"",artifactID, dialogueID}]</t>
+  </si>
+  <si>
+    <t>{nick,pass,id,text}</t>
+  </si>
+  <si>
+    <t>change_text</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -647,12 +647,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,121 +663,121 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
       <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -790,9 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -801,17 +799,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/pdf/src/API DOC.xlsx
+++ b/doc/pdf/src/API DOC.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3420" windowHeight="2700"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="3420" windowHeight="2700"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="API" sheetId="1" r:id="rId1"/>
     <sheet name="Структура запроса" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Действие</t>
   </si>
@@ -39,21 +39,12 @@
     <t>Создать пользователя</t>
   </si>
   <si>
-    <t>Логин</t>
-  </si>
-  <si>
-    <t>Логаут</t>
-  </si>
-  <si>
     <t>create_user</t>
   </si>
   <si>
     <t>[{nick:"",pass:""}]</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Создать диалог</t>
   </si>
   <si>
@@ -148,39 +139,6 @@
   </si>
   <si>
     <t>Получить сообщение по id</t>
-  </si>
-  <si>
-    <t>создать артефакт</t>
-  </si>
-  <si>
-    <t>create_artifact</t>
-  </si>
-  <si>
-    <t>file_binary_data</t>
-  </si>
-  <si>
-    <t>{mime:"",fileName:""}</t>
-  </si>
-  <si>
-    <t>{id:x,mime:"",path=""}</t>
-  </si>
-  <si>
-    <t>получить артефакт</t>
-  </si>
-  <si>
-    <t>get_artfact</t>
-  </si>
-  <si>
-    <t>{id=x}</t>
-  </si>
-  <si>
-    <t>Доббавить учаастника</t>
-  </si>
-  <si>
-    <t>Удалить участника</t>
-  </si>
-  <si>
-    <t>добавить id диалога</t>
   </si>
   <si>
     <t>[{nick:"",pass:"",text:"",artifactID, dialogueID}]</t>
@@ -229,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,13 +195,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -251,6 +234,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -531,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,242 +527,168 @@
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="92.5703125" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -799,17 +712,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
